--- a/datos/datos_usabilidad.xlsx
+++ b/datos/datos_usabilidad.xlsx
@@ -158,10 +158,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -179,25 +179,324 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
-        <v>12256</v>
+        <v>12552</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
-        <v>12258</v>
+        <v>12255</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
-        <v>12307</v>
+        <v>12256</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="n">
+        <v>12553</v>
+      </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="n">
+        <v>12257</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>12258</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>12554</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>12259</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>12555</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>12261</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>12262</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>12556</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>12263</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>12264</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>12557</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>12265</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>12266</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>12558</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>12267</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>12268</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
+        <v>12559</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>12269</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>12270</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>12560</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>12271</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
+        <v>12272</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>12561</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>12273</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>12274</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>12562</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>12275</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>12276</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>12563</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>12277</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
+        <v>12278</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>12564</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
+        <v>12279</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
+        <v>12280</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
+        <v>12565</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
+        <v>12281</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
+        <v>12282</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="n">
+        <v>12567</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="n">
+        <v>12283</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
+        <v>12284</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="n">
+        <v>12569</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="n">
+        <v>12285</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="n">
+        <v>12286</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="n">
+        <v>12571</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="n">
+        <v>12287</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="n">
+        <v>12288</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="n">
+        <v>12573</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="n">
+        <v>12289</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="n">
+        <v>12290</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="n">
+        <v>12574</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="n">
+        <v>12291</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="n">
+        <v>12292</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="n">
+        <v>12575</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="n">
+        <v>12293</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="n">
+        <v>12294</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="n">
+        <v>12576</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="n">
+        <v>12295</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="n">
+        <v>12296</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="n">
+        <v>12577</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/datos/datos_usabilidad.xlsx
+++ b/datos/datos_usabilidad.xlsx
@@ -160,8 +160,8 @@
   </sheetPr>
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -179,324 +179,296 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
-        <v>12552</v>
+        <v>12254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
-        <v>12255</v>
+        <v>12552</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
-        <v>12256</v>
+        <v>12255</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
-        <v>12553</v>
+        <v>12256</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
-        <v>12257</v>
+        <v>12553</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
-        <v>12258</v>
+        <v>12257</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
-        <v>12554</v>
+        <v>12258</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
-        <v>12259</v>
+        <v>12554</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
-        <v>12260</v>
+        <v>12259</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
-        <v>12555</v>
+        <v>12260</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
-        <v>12261</v>
+        <v>12555</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
-        <v>12262</v>
+        <v>12261</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
-        <v>12556</v>
+        <v>12262</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
-        <v>12263</v>
+        <v>12556</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
-        <v>12264</v>
+        <v>12263</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
-        <v>12557</v>
+        <v>12264</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
-        <v>12265</v>
+        <v>12557</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
-        <v>12266</v>
+        <v>12265</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
-        <v>12558</v>
+        <v>12266</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
-        <v>12267</v>
+        <v>12558</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
-        <v>12268</v>
+        <v>12267</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
+        <v>12268</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
         <v>12559</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
-        <v>12269</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
-        <v>12270</v>
+        <v>12269</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
-        <v>12560</v>
+        <v>12270</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
-        <v>12271</v>
+        <v>12560</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
-        <v>12272</v>
+        <v>12271</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
-        <v>12561</v>
+        <v>12272</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
-        <v>12273</v>
+        <v>12561</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
-        <v>12274</v>
+        <v>12273</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
-        <v>12562</v>
+        <v>12274</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="n">
-        <v>12275</v>
+        <v>12562</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="n">
-        <v>12276</v>
+        <v>12275</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="n">
-        <v>12563</v>
+        <v>12276</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="n">
-        <v>12277</v>
+        <v>12563</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="n">
-        <v>12278</v>
+        <v>12277</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="n">
-        <v>12564</v>
+        <v>12278</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="n">
-        <v>12279</v>
+        <v>12564</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="n">
-        <v>12280</v>
+        <v>12279</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="n">
-        <v>12565</v>
+        <v>12280</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="n">
-        <v>12281</v>
+        <v>12565</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="n">
-        <v>12282</v>
+        <v>12281</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="n">
-        <v>12567</v>
+        <v>12282</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="n">
-        <v>12283</v>
+        <v>12567</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="n">
-        <v>12284</v>
+        <v>12283</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="n">
-        <v>12569</v>
+        <v>12284</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="n">
-        <v>12285</v>
+        <v>12569</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="n">
-        <v>12286</v>
+        <v>12285</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="n">
-        <v>12571</v>
+        <v>12286</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="n">
-        <v>12287</v>
+        <v>12571</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
-        <v>12288</v>
-      </c>
+      <c r="A52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
-        <v>12573</v>
-      </c>
+      <c r="A53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
-        <v>12289</v>
-      </c>
+      <c r="A54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
-        <v>12290</v>
-      </c>
+      <c r="A55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
-        <v>12574</v>
-      </c>
+      <c r="A56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
-        <v>12291</v>
-      </c>
+      <c r="A57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
-        <v>12292</v>
-      </c>
+      <c r="A58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
-        <v>12575</v>
-      </c>
+      <c r="A59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
-        <v>12293</v>
-      </c>
+      <c r="A60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
-        <v>12294</v>
-      </c>
+      <c r="A61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
-        <v>12576</v>
-      </c>
+      <c r="A62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
-        <v>12295</v>
-      </c>
+      <c r="A63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
-        <v>12296</v>
-      </c>
+      <c r="A64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
-        <v>12577</v>
-      </c>
+      <c r="A65" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
